--- a/orderrecord.xlsx
+++ b/orderrecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ccd51aaea1fe508/Documents/Java Projects/02-duckdeng/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{8BC439E1-5175-44EF-94F0-CA43F9B1EB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B48DD5-EE33-4846-9C0F-4213029C1722}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{8BC439E1-5175-44EF-94F0-CA43F9B1EB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F035C39-0599-4E9A-8CED-796E17710B54}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orderIdwithAmount" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,43 +44,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全家二吃辣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半鴨二吃辣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全鴨剁炒辣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半鴨剁炒辣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全鴨剁盤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半鴨剁盤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全雞手扒雞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半雞手扒雞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷葉餅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜麵醬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,38 +543,38 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>280</v>
@@ -626,30 +590,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FDE67-CD3C-49CB-84A7-61E7EAA1DF3A}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>600</v>
@@ -658,20 +622,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>650</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>320</v>
@@ -680,20 +644,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>590</v>
@@ -702,20 +666,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>630</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>300</v>
@@ -724,81 +688,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>320</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>570</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>450</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -812,161 +776,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>

--- a/orderrecord.xlsx
+++ b/orderrecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ccd51aaea1fe508/Documents/Java Projects/02-duckdeng/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZ01LB858\Desktop\gitHub\duckdeng2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{8BC439E1-5175-44EF-94F0-CA43F9B1EB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F035C39-0599-4E9A-8CED-796E17710B54}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BA4CC6-6AE9-497F-A246-6248644899BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orderIdwithAmount" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>半壓剁盤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手扒雞一隻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +161,98 @@
   </si>
   <si>
     <t>甜麵醬一份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>orderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半鴨剁盤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chicken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sauce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>half</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,9 +296,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -226,18 +315,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBE7D68-FC05-4727-A9AF-29F723915A30}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -588,181 +665,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FDE67-CD3C-49CB-84A7-61E7EAA1DF3A}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>600</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>650</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>320</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>350</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>590</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>630</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>300</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>320</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>570</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>290</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>450</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>450</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>230</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>230</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -776,62 +989,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">

--- a/orderrecord.xlsx
+++ b/orderrecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZ01LB858\Desktop\gitHub\duckdeng2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BA4CC6-6AE9-497F-A246-6248644899BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671F4E16-530F-44E1-81E4-04E7B897A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orderIdwithAmount" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,62 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quanYaTwoEat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quanJiaTwoEatSpicy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banYaTwoEat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banYaTwoEatSpicy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quanYaChopFry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quanYaChopFrySpicy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banYaChopFry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banYaChopFrySpicy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quanYaChopPlate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banYaChopPlate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quanJiShouPaJi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banJiShouPaJi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heYeBing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianMianJiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全鴨二吃香鍋麻辣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,22 +164,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Duck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>半鴨剁盤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chicken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cookie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sauce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,6 +181,81 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemSpicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCookMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">saute </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packet</t>
+  </si>
+  <si>
+    <t>packet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemIngred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬性add的品項 新增時沒有開 itemIngred itemUnit itemSpicy itemCookMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單日期直接抓Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這裡新增後 order也要新增欄位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,10 +299,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -616,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBE7D68-FC05-4727-A9AF-29F723915A30}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -665,317 +669,418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FDE67-CD3C-49CB-84A7-61E7EAA1DF3A}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>650</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>590</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>630</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>320</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>570</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>450</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>230</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>600</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>650</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>320</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>350</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>590</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>630</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>300</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>320</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>570</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>290</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>450</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>230</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -987,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1014,49 +1119,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1198,6 +1303,11 @@
       </c>
       <c r="O4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
